--- a/medicine/Pharmacie/Apollinaire_Bouchardat/Apollinaire_Bouchardat.xlsx
+++ b/medicine/Pharmacie/Apollinaire_Bouchardat/Apollinaire_Bouchardat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apollinaire Bouchardat, né le 23 juillet 1806 à L'Isle-sur-Serein, mort le 7 avril 1886 à Paris (4e arrondissement)[1]  est un médecin, pharmacien et hygiéniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apollinaire Bouchardat, né le 23 juillet 1806 à L'Isle-sur-Serein, mort le 7 avril 1886 à Paris (4e arrondissement)  est un médecin, pharmacien et hygiéniste français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un soldat de Napoléon Ier, Apollinaire Bouchardat a été placé dès l'âge de 8 ans chez son oncle, pharmacien à Avallon. À l'âge de 19 ans, il se rend à Paris et commence à étudier à l'École de Pharmacie de Paris et au Muséum d'Histoire Naturelle. Pour financer ses études, il enseigne et se servira plus tard de cette expérience pour écrire un manuel de préparation au baccalauréat. En 1827, il est reçu premier au concours de l'Internat en pharmacie, et devient médecin cinq ans plus tard. Il est ensuite chef-pharmacien à l'Hôtel-Dieu de Paris, où il demeure 23 ans et effectue l'essentiel de sa carrière. Au milieu des années 1850, il devient professeur d'hygiène à la Faculté de Médecine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un soldat de Napoléon Ier, Apollinaire Bouchardat a été placé dès l'âge de 8 ans chez son oncle, pharmacien à Avallon. À l'âge de 19 ans, il se rend à Paris et commence à étudier à l'École de Pharmacie de Paris et au Muséum d'Histoire Naturelle. Pour financer ses études, il enseigne et se servira plus tard de cette expérience pour écrire un manuel de préparation au baccalauréat. En 1827, il est reçu premier au concours de l'Internat en pharmacie, et devient médecin cinq ans plus tard. Il est ensuite chef-pharmacien à l'Hôtel-Dieu de Paris, où il demeure 23 ans et effectue l'essentiel de sa carrière. Au milieu des années 1850, il devient professeur d'hygiène à la Faculté de Médecine.
 Il est membre de l'Académie Impériale de médecine qu'il préside en 1866. Son fils Gustave Bouchardat préside l'Académie nationale de médecine en 1917. 
-Apollinaire Bouchardat meurt le 7 avril 1886 et a été enterré au cimetière du Père-Lachaise (63e division) à Paris le 10 avril[3].
+Apollinaire Bouchardat meurt le 7 avril 1886 et a été enterré au cimetière du Père-Lachaise (63e division) à Paris le 10 avril.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Travaux médicaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On considère généralement Apollinaire Bouchardat comme le fondateur de la diabétologie, et il a été une figure majeure de la promotion des thérapies diététiques pour le traitement des diabètes avant l'arrivée des thérapies par insuline. Il a découvert que la diète était une méthode pour réduire la glycosurie, et a émis l'hypothèse que la principale cause du diabète était localisée dans le pancréas. Dans le traitement de cette maladie, il a accordé une grande importance à l'exercice, et développé une méthode pour tester soi-même son urine et déterminer la présence du glucose.
 Parmi ses écrits, le Nouveau Formulaire Magistral a eu un grand succès et a été publié en de multiples éditions. Ce formulaire contenait des informations de santé et des formules pharmaceutiques incluant des cures naturelles et des remèdes pour tous types de maux.
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Memoire sur le diabète. Off-Print Revue Médicale, Juin 1839.  pp.25
@@ -614,7 +632,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dr. Michel Rathery, « Apollinaire Bouchardat (1806-1886) » dans Médecine de France, n° XXXVI, 1957 Lire en ligne
 Viktor Jörgens, Notice biographique sur www.diabetologia-journal.org, 2005</t>
